--- a/src/main/resources/static/documents/数据库表结构.xlsx
+++ b/src/main/resources/static/documents/数据库表结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="product" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>id</t>
   </si>
@@ -110,6 +110,14 @@
   </si>
   <si>
     <t>在页面上显示的顺序优先级</t>
+  </si>
+  <si>
+    <t>不是null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -187,13 +195,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -476,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="A1:D1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -487,124 +495,154 @@
     <col min="1" max="1" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="3">
         <v>255</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="3">
         <v>255</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="3">
         <v>255</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="3">
         <v>255</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="3">
         <v>255</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -612,8 +650,8 @@
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C1:F1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -623,103 +661,130 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="5.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
         <v>11</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
         <v>11</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
         <v>11</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>